--- a/teste2.xlsx
+++ b/teste2.xlsx
@@ -1,47 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTS A - LID\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25DCFD32-5D6E-4FF8-8946-0367465258CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18015" windowHeight="7365" tabRatio="672"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ETIQUETA1" sheetId="1" r:id="rId1"/>
+    <sheet name="ETIQUETA2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Z_1993D13B_40C7_4213_983A_2D128A2F6810_.wvu.PrintArea" localSheetId="0" hidden="1">ETIQUETA1!$A$1:$C$14</definedName>
-  </definedNames>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>LINHA</t>
-  </si>
-  <si>
-    <t>L581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   PRODUTO</t>
-  </si>
-  <si>
-    <t>Tampa Prata</t>
-  </si>
-  <si>
-    <t>Sem Selante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CÓD PRODUTO</t>
-  </si>
-  <si>
-    <t>N° ETIQUETA</t>
-  </si>
-  <si>
-    <t>Teste</t>
   </si>
   <si>
     <t>DATA PRODUÇÃO</t>
@@ -59,35 +52,40 @@
     <t>OT DA BOBINA</t>
   </si>
   <si>
-    <t>será</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AMBEV S.A. - FILIAL LATAS MINAS
+ROD. MG 238, S/N, KM 72,5 SETE LAGOAS/MG
+CNPJ: 07.526.557/0103-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa dourada </t>
+  </si>
+  <si>
+    <t>Com Selante</t>
+  </si>
+  <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>CÓDIGO PRODUTO</t>
+  </si>
+  <si>
+    <t>NÚMERO ETIQUETA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,7 +101,36 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="60"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,7 +138,21 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -206,23 +247,189 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -230,120 +437,230 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -352,19 +669,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>41415</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>206371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1884750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601134</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>203814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="logo-lm.png"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="Logo LM Preta.PNG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED7B45D-8856-4E63-A857-EC91740CC2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -377,15 +700,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="651015" y="285750"/>
-          <a:ext cx="1843335" cy="742950"/>
+          <a:off x="19050" y="406396"/>
+          <a:ext cx="1801284" cy="1045193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -396,7 +716,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,9 +754,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +788,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,9 +840,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,150 +1033,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B02011-D460-4D02-A5B6-F04C96FB2074}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
+        <v>581</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>40008801</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="13">
+        <v>1661</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
+        <v>44796</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="39">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A9" s="17" t="str">
-        <f>IF(A7="TAMPA PRATA","40009011",IF(A7="TAMPA DOURADA","40009013",""))</f>
-        <v>40009011</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
+        <v>187200</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="62">
+        <v>972709</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A11" s="6">
-        <f ca="1">NOW()</f>
-        <v>44403.58767789352</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f>IF(C11&lt;=0.291,"A",IF(AND(C11&gt;=0.2911,C11&lt;=0.625),"B",IF(AND(C11&gt;=0.6251,C11&lt;=0.9583),"C",IF(C11&gt;=0.95831,"A"))))</f>
-        <v>B</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.58868055555555554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="10">
-        <v>187200</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="20">
+    <mergeCell ref="A18:F23"/>
+    <mergeCell ref="A13:C17"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D13:F17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="256" scale="93" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/teste2.xlsx
+++ b/teste2.xlsx
@@ -1,47 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTS A - LID\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495C3370-A4F7-437F-B6E7-8463E3CEE878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18015" windowHeight="7365" tabRatio="672"/>
+    <workbookView xWindow="17550" yWindow="7650" windowWidth="21600" windowHeight="11385" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ETIQUETA1" sheetId="1" r:id="rId1"/>
+    <sheet name="ETIQUETA1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Z_1993D13B_40C7_4213_983A_2D128A2F6810_.wvu.PrintArea" localSheetId="0" hidden="1">ETIQUETA1!$A$1:$C$14</definedName>
-  </definedNames>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>LINHA</t>
-  </si>
-  <si>
-    <t>L581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   PRODUTO</t>
-  </si>
-  <si>
-    <t>Tampa Prata</t>
-  </si>
-  <si>
-    <t>Sem Selante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CÓD PRODUTO</t>
-  </si>
-  <si>
-    <t>N° ETIQUETA</t>
-  </si>
-  <si>
-    <t>Teste</t>
   </si>
   <si>
     <t>DATA PRODUÇÃO</t>
@@ -59,35 +52,40 @@
     <t>OT DA BOBINA</t>
   </si>
   <si>
-    <t>será</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AMBEV S.A. - FILIAL LATAS MINAS
+ROD. MG 238, S/N, KM 72,5 SETE LAGOAS/MG
+CNPJ: 07.526.557/0103-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa dourada </t>
+  </si>
+  <si>
+    <t>Com Selante</t>
+  </si>
+  <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>CÓDIGO PRODUTO</t>
+  </si>
+  <si>
+    <t>NÚMERO ETIQUETA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,7 +101,36 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="60"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,7 +138,21 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -206,23 +247,189 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -230,120 +437,230 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -352,19 +669,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>41415</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>206371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1884750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601134</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>203814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="logo-lm.png"/>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="Logo LM Preta.PNG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED7B45D-8856-4E63-A857-EC91740CC2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -377,15 +700,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="651015" y="285750"/>
-          <a:ext cx="1843335" cy="742950"/>
+          <a:off x="19050" y="406396"/>
+          <a:ext cx="1801284" cy="1045193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -396,7 +716,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,9 +754,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +788,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,9 +840,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,150 +1033,334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B02011-D460-4D02-A5B6-F04C96FB2074}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="62">
+        <v>581</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>40008801</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44">
+        <v>1661</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>44796</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A9" s="17" t="str">
-        <f>IF(A7="TAMPA PRATA","40009011",IF(A7="TAMPA DOURADA","40009013",""))</f>
-        <v>40009011</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>187200</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="32">
+        <v>972709</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A11" s="6">
-        <f ca="1">NOW()</f>
-        <v>44403.58767789352</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f>IF(C11&lt;=0.291,"A",IF(AND(C11&gt;=0.2911,C11&lt;=0.625),"B",IF(AND(C11&gt;=0.6251,C11&lt;=0.9583),"C",IF(C11&gt;=0.95831,"A"))))</f>
-        <v>B</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.58868055555555554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="10">
-        <v>187200</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="51" customHeight="1" thickBot="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="20">
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A18:F23"/>
+    <mergeCell ref="A13:C17"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D13:F17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="256" scale="93" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>